--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,172 +40,166 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>like</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -682,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8493150684931506</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,16 +797,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -882,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.9069767441860465</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -950,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9060052219321149</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5608465608465608</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L10">
         <v>29</v>
       </c>
-      <c r="K10">
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="L10">
-        <v>42</v>
-      </c>
       <c r="M10">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5135658914728682</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C11">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4509803921568628</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L12">
         <v>31</v>
       </c>
-      <c r="K12">
-        <v>0.8793103448275862</v>
-      </c>
-      <c r="L12">
-        <v>51</v>
-      </c>
       <c r="M12">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3559322033898305</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3454545454545455</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3087248322147651</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8661971830985915</v>
+        <v>0.85625</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,21 +1268,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.2818791946308725</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>107</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,21 +1318,45 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.0873015873015873</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>230</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.8636363636363636</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1326,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.8625</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L18">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1352,116 +1394,116 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="L19">
+        <v>39</v>
+      </c>
+      <c r="M19">
+        <v>39</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>48</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.82</v>
+      </c>
+      <c r="L21">
+        <v>41</v>
+      </c>
+      <c r="M21">
+        <v>41</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L22">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>0.8584905660377359</v>
-      </c>
-      <c r="L19">
-        <v>91</v>
-      </c>
-      <c r="M19">
-        <v>91</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L20">
-        <v>30</v>
-      </c>
-      <c r="M20">
-        <v>30</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L21">
-        <v>23</v>
-      </c>
-      <c r="M21">
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>0.8</v>
-      </c>
-      <c r="L22">
-        <v>40</v>
-      </c>
-      <c r="M22">
-        <v>40</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
+    <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>0.7916666666666666</v>
@@ -1485,122 +1527,122 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="10:17">
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.7619047619047619</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L25">
+        <v>49</v>
+      </c>
+      <c r="M25">
+        <v>49</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M24">
-        <v>48</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
+      <c r="K27">
         <v>0.75</v>
       </c>
-      <c r="L25">
+      <c r="L27">
         <v>21</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <v>21</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>0.7280334728033473</v>
-      </c>
-      <c r="L27">
-        <v>174</v>
-      </c>
-      <c r="M27">
-        <v>174</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
+    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1612,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.711764705882353</v>
+        <v>0.7405857740585774</v>
       </c>
       <c r="L29">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="M29">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1638,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.7058823529411765</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1661,24 +1703,24 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1690,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1716,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.6983050847457627</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1742,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.696969696969697</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1768,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.648936170212766</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1794,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6404494382022472</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L36">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1820,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1846,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5777777777777777</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1872,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.575</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1898,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5512820512820513</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1924,111 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="L41">
-        <v>23</v>
-      </c>
-      <c r="M41">
-        <v>23</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42">
-        <v>0.5205479452054794</v>
-      </c>
-      <c r="L42">
-        <v>38</v>
-      </c>
-      <c r="M42">
-        <v>38</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43">
-        <v>0.4375</v>
-      </c>
-      <c r="L43">
-        <v>28</v>
-      </c>
-      <c r="M43">
-        <v>28</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44">
-        <v>0.3728813559322034</v>
-      </c>
-      <c r="L44">
-        <v>22</v>
-      </c>
-      <c r="M44">
-        <v>22</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
